--- a/CommService_2024.xlsx
+++ b/CommService_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nbccollege-my.sharepoint.com/personal/stephen_carter_nbcc_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{03BD40B3-DE32-42C4-9648-D91DD5768927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE0C4EC7-CA4D-48E1-8ED3-F557E62C8DA0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB7E1A-65CE-4D89-8376-0A4115B6DF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B0A7A3C-3ADE-463B-B662-A46C165CE67B}"/>
+    <workbookView xWindow="28680" yWindow="1545" windowWidth="29040" windowHeight="15840" xr2:uid="{3B0A7A3C-3ADE-463B-B662-A46C165CE67B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="124">
   <si>
     <t>Last Name</t>
   </si>
@@ -408,12 +408,6 @@
   </si>
   <si>
     <t>Carlo</t>
-  </si>
-  <si>
-    <t>Wiley</t>
-  </si>
-  <si>
-    <t>Colby</t>
   </si>
 </sst>
 </file>
@@ -799,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7280A902-9E8B-4B89-878A-6C3E58731B69}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +855,9 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -887,7 +883,9 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -899,7 +897,9 @@
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -936,8 +936,12 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1027,7 +1031,9 @@
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1213,7 +1219,9 @@
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1236,7 +1244,9 @@
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1258,9 @@
       <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1317,9 @@
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1407,7 +1421,9 @@
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1419,7 +1435,9 @@
       <c r="C51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1431,7 +1449,9 @@
       <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -1521,6 +1541,9 @@
       <c r="B60" t="s">
         <v>119</v>
       </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,12 +1575,6 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,9 +1606,6 @@
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CommService_2024.xlsx
+++ b/CommService_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB7E1A-65CE-4D89-8376-0A4115B6DF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861983FC-43CD-4F20-9964-E37EB63CF233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1545" windowWidth="29040" windowHeight="15840" xr2:uid="{3B0A7A3C-3ADE-463B-B662-A46C165CE67B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B0A7A3C-3ADE-463B-B662-A46C165CE67B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="124">
   <si>
     <t>Last Name</t>
   </si>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7280A902-9E8B-4B89-878A-6C3E58731B69}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,8 +842,12 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1005,7 +1009,9 @@
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1156,7 +1162,9 @@
       <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1166,8 +1174,12 @@
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1179,7 +1191,9 @@
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1261,7 +1275,9 @@
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1270,7 +1286,9 @@
       <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,7 +1309,9 @@
         <v>79</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1328,8 +1348,12 @@
       <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1338,8 +1362,12 @@
       <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1398,8 +1426,12 @@
       <c r="B48" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1544,7 +1576,9 @@
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
